--- a/NEW HR/DONE/MIRANDA, JULIUS.xlsx
+++ b/NEW HR/DONE/MIRANDA, JULIUS.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="72">
   <si>
     <t>PERIOD</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>8/7,9,25/2023</t>
+  </si>
+  <si>
+    <t>12/27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -628,17 +631,14 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -652,23 +652,26 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1359,7 +1362,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1402,7 +1405,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1466,7 +1469,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1526,7 +1529,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1592,7 +1595,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1655,7 +1658,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1753,7 +1756,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1812,7 +1815,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1877,7 +1880,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1920,7 +1923,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1995,7 +1998,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2181,7 +2184,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,7 +2250,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,7 +2308,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2371,7 +2374,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2427,7 +2430,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2502,7 +2505,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,7 +2548,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2611,7 +2614,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2667,7 +2670,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2765,7 +2768,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2828,7 +2831,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3329,34 +3332,34 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
@@ -3368,21 +3371,21 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3408,18 +3411,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5767,17 +5770,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5813,9 +5816,9 @@
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <pane ySplit="4380" topLeftCell="A7" activePane="bottomLeft"/>
+      <pane ySplit="4380" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5837,41 +5840,41 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
         <v>MIRANDA, JULIUS</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49" t="str">
+      <c r="B3" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
         <v/>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56" t="str">
+      <c r="F3" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
@@ -5883,25 +5886,25 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="str">
+      <c r="B4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B4:C4),"---------",'2018 LEAVE CREDITS'!B4:C4)</f>
         <v>CASUAL</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="str">
+      <c r="F4" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5927,18 +5930,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5985,7 +5988,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>38.223999999999997</v>
+        <v>35.223999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6084,7 +6087,7 @@
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="61" t="s">
+      <c r="K13" s="49" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6106,7 +6109,7 @@
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="61">
+      <c r="K14" s="49">
         <v>44929</v>
       </c>
     </row>
@@ -6128,7 +6131,7 @@
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="61">
+      <c r="K15" s="49">
         <v>44946</v>
       </c>
     </row>
@@ -6150,7 +6153,7 @@
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="61">
+      <c r="K16" s="49">
         <v>44952</v>
       </c>
     </row>
@@ -6172,7 +6175,7 @@
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="62">
+      <c r="K17" s="50">
         <v>44956</v>
       </c>
     </row>
@@ -6196,7 +6199,7 @@
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="61">
+      <c r="K18" s="49">
         <v>44959</v>
       </c>
     </row>
@@ -6218,7 +6221,7 @@
       <c r="H19" s="39"/>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="61" t="s">
+      <c r="K19" s="49" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6240,7 +6243,7 @@
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="61">
+      <c r="K20" s="49">
         <v>44967</v>
       </c>
     </row>
@@ -6284,7 +6287,7 @@
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="61">
+      <c r="K22" s="49">
         <v>44979</v>
       </c>
     </row>
@@ -6308,7 +6311,7 @@
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="61">
+      <c r="K23" s="49">
         <v>45001</v>
       </c>
     </row>
@@ -6330,7 +6333,7 @@
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="61">
+      <c r="K24" s="49">
         <v>45005</v>
       </c>
     </row>
@@ -6352,7 +6355,7 @@
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="61">
+      <c r="K25" s="49">
         <v>45009</v>
       </c>
     </row>
@@ -6374,7 +6377,7 @@
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="61">
+      <c r="K26" s="49">
         <v>45013</v>
       </c>
     </row>
@@ -6396,7 +6399,7 @@
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="61">
+      <c r="K27" s="49">
         <v>45014</v>
       </c>
     </row>
@@ -6418,7 +6421,7 @@
       <c r="H28" s="39"/>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="61">
+      <c r="K28" s="49">
         <v>45016</v>
       </c>
     </row>
@@ -6442,7 +6445,7 @@
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="61">
+      <c r="K29" s="49">
         <v>45020</v>
       </c>
     </row>
@@ -6464,7 +6467,7 @@
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="61">
+      <c r="K30" s="49">
         <v>45021</v>
       </c>
     </row>
@@ -6486,7 +6489,7 @@
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="61">
+      <c r="K31" s="49">
         <v>45028</v>
       </c>
     </row>
@@ -6508,7 +6511,7 @@
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="61">
+      <c r="K32" s="49">
         <v>45043</v>
       </c>
     </row>
@@ -6530,7 +6533,7 @@
       <c r="H33" s="39"/>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="61">
+      <c r="K33" s="49">
         <v>45044</v>
       </c>
     </row>
@@ -6576,7 +6579,7 @@
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="61">
+      <c r="K35" s="49">
         <v>45051</v>
       </c>
     </row>
@@ -6620,7 +6623,7 @@
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="61">
+      <c r="K37" s="49">
         <v>45061</v>
       </c>
     </row>
@@ -6642,7 +6645,7 @@
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="61">
+      <c r="K38" s="49">
         <v>45064</v>
       </c>
     </row>
@@ -6664,7 +6667,7 @@
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="61">
+      <c r="K39" s="49">
         <v>45065</v>
       </c>
     </row>
@@ -6686,7 +6689,7 @@
       <c r="H40" s="39"/>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="61">
+      <c r="K40" s="49">
         <v>45075</v>
       </c>
     </row>
@@ -6732,7 +6735,7 @@
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="61">
+      <c r="K42" s="49">
         <v>45086</v>
       </c>
     </row>
@@ -6754,7 +6757,7 @@
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="61">
+      <c r="K43" s="49">
         <v>45103</v>
       </c>
     </row>
@@ -6776,7 +6779,7 @@
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="61">
+      <c r="K44" s="49">
         <v>45104</v>
       </c>
     </row>
@@ -6800,7 +6803,7 @@
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="61">
+      <c r="K45" s="49">
         <v>45110</v>
       </c>
     </row>
@@ -6844,7 +6847,7 @@
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="61">
+      <c r="K47" s="49">
         <v>45114</v>
       </c>
     </row>
@@ -6888,7 +6891,7 @@
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="61">
+      <c r="K49" s="49">
         <v>45118</v>
       </c>
     </row>
@@ -6910,7 +6913,7 @@
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="61">
+      <c r="K50" s="49">
         <v>45133</v>
       </c>
     </row>
@@ -6932,7 +6935,7 @@
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="61">
+      <c r="K51" s="49">
         <v>45135</v>
       </c>
     </row>
@@ -6954,7 +6957,7 @@
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="61">
+      <c r="K52" s="49">
         <v>45138</v>
       </c>
     </row>
@@ -6978,7 +6981,7 @@
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="61">
+      <c r="K53" s="49">
         <v>45142</v>
       </c>
     </row>
@@ -7022,7 +7025,7 @@
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="61">
+      <c r="K55" s="49">
         <v>45155</v>
       </c>
     </row>
@@ -7044,15 +7047,21 @@
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="61">
+      <c r="K56" s="49">
         <v>45162</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
-      <c r="B57" s="20"/>
+      <c r="A57" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C57" s="13"/>
-      <c r="D57" s="39"/>
+      <c r="D57" s="39">
+        <v>3</v>
+      </c>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
       <c r="G57" s="13" t="str">
@@ -7062,7 +7071,9 @@
       <c r="H57" s="39"/>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="20"/>
+      <c r="K57" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
@@ -8312,17 +8323,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -8403,12 +8414,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
